--- a/models/substation/sysconfig_ss_230kv.xlsx
+++ b/models/substation/sysconfig_ss_230kv.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/models/substation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C092EF5-D5D3-3D42-A644-2F56E2CB0FC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="465" windowWidth="28740" windowHeight="16515" tabRatio="707" activeTab="5"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28740" windowHeight="16520" tabRatio="707" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="13" r:id="rId1"/>
@@ -49,7 +55,7 @@
     <definedName name="cost_ptr_50mva" localSheetId="7">comptype_costs_230kv!$F$12</definedName>
     <definedName name="cost_ptr_50mva">comptype_costs_all!$F$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,12 +65,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maruf Rahman</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="327">
   <si>
     <t>component_type</t>
   </si>
@@ -1066,12 +1072,21 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>recovery_function</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1079,7 +1094,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3791,7 +3806,17 @@
     <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -4354,20 +4379,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>307</v>
       </c>
@@ -4378,7 +4403,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -4389,7 +4414,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -4400,7 +4425,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -4408,7 +4433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -4419,7 +4444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -4430,7 +4455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>315</v>
       </c>
@@ -4441,8 +4466,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I343"/>
@@ -4451,18 +4476,18 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="34" customWidth="1"/>
     <col min="2" max="2" width="44" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="34" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" style="34" customWidth="1"/>
     <col min="8" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="63" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="63" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>285</v>
       </c>
@@ -4485,7 +4510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -4508,7 +4533,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -4531,7 +4556,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>244</v>
       </c>
@@ -4552,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>258</v>
       </c>
@@ -4573,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>259</v>
       </c>
@@ -4594,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -4617,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
@@ -4640,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -4663,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
@@ -4686,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
@@ -4709,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4732,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -4755,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>231</v>
       </c>
@@ -4775,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>232</v>
       </c>
@@ -4795,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>233</v>
       </c>
@@ -4818,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>234</v>
       </c>
@@ -4841,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>235</v>
       </c>
@@ -4864,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>236</v>
       </c>
@@ -4887,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>238</v>
       </c>
@@ -4910,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>239</v>
       </c>
@@ -4933,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
         <v>240</v>
       </c>
@@ -4956,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
@@ -4979,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="20" t="s">
         <v>61</v>
       </c>
@@ -5002,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
@@ -5025,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
@@ -5048,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>64</v>
       </c>
@@ -5071,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
@@ -5094,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>66</v>
       </c>
@@ -5117,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="20" t="s">
         <v>67</v>
       </c>
@@ -5140,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>68</v>
       </c>
@@ -5163,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>69</v>
       </c>
@@ -5186,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>70</v>
       </c>
@@ -5209,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>71</v>
       </c>
@@ -5232,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>72</v>
       </c>
@@ -5255,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>73</v>
       </c>
@@ -5278,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>74</v>
       </c>
@@ -5301,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>75</v>
       </c>
@@ -5324,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>76</v>
       </c>
@@ -5347,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="20" t="s">
         <v>77</v>
       </c>
@@ -5370,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="20" t="s">
         <v>78</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>79</v>
       </c>
@@ -5416,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="20" t="s">
         <v>80</v>
       </c>
@@ -5439,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="20" t="s">
         <v>81</v>
       </c>
@@ -5462,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>82</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>83</v>
       </c>
@@ -5508,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>84</v>
       </c>
@@ -5531,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>85</v>
       </c>
@@ -5554,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>86</v>
       </c>
@@ -5577,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>87</v>
       </c>
@@ -5600,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>88</v>
       </c>
@@ -5623,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>89</v>
       </c>
@@ -5646,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>90</v>
       </c>
@@ -5669,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>91</v>
       </c>
@@ -5692,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
@@ -5715,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>93</v>
       </c>
@@ -5738,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>94</v>
       </c>
@@ -5761,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>95</v>
       </c>
@@ -5784,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="20" t="s">
         <v>192</v>
       </c>
@@ -5807,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A60" s="14" t="s">
         <v>193</v>
       </c>
@@ -5830,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>96</v>
       </c>
@@ -5853,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>97</v>
       </c>
@@ -5876,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>98</v>
       </c>
@@ -5899,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>99</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="12" t="s">
         <v>100</v>
       </c>
@@ -5945,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>101</v>
       </c>
@@ -5968,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>102</v>
       </c>
@@ -5991,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>103</v>
       </c>
@@ -6014,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>104</v>
       </c>
@@ -6037,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>105</v>
       </c>
@@ -6060,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="12" t="s">
         <v>106</v>
       </c>
@@ -6083,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="12" t="s">
         <v>107</v>
       </c>
@@ -6106,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A73" s="12" t="s">
         <v>108</v>
       </c>
@@ -6129,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="12" t="s">
         <v>109</v>
       </c>
@@ -6152,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A75" s="12" t="s">
         <v>110</v>
       </c>
@@ -6175,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A76" s="12" t="s">
         <v>111</v>
       </c>
@@ -6198,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>112</v>
       </c>
@@ -6221,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>113</v>
       </c>
@@ -6244,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>114</v>
       </c>
@@ -6267,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>115</v>
       </c>
@@ -6290,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>116</v>
       </c>
@@ -6313,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A82" s="12" t="s">
         <v>117</v>
       </c>
@@ -6336,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>118</v>
       </c>
@@ -6359,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>119</v>
       </c>
@@ -6382,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>120</v>
       </c>
@@ -6405,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A86" s="12" t="s">
         <v>121</v>
       </c>
@@ -6428,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A87" s="12" t="s">
         <v>122</v>
       </c>
@@ -6451,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A88" s="12" t="s">
         <v>123</v>
       </c>
@@ -6474,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A89" s="12" t="s">
         <v>124</v>
       </c>
@@ -6497,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A90" s="12" t="s">
         <v>125</v>
       </c>
@@ -6520,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A91" s="12" t="s">
         <v>126</v>
       </c>
@@ -6543,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A92" s="12" t="s">
         <v>127</v>
       </c>
@@ -6566,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>128</v>
       </c>
@@ -6589,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A94" s="12" t="s">
         <v>129</v>
       </c>
@@ -6612,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A95" s="12" t="s">
         <v>130</v>
       </c>
@@ -6635,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A96" s="12" t="s">
         <v>131</v>
       </c>
@@ -6658,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A97" s="12" t="s">
         <v>132</v>
       </c>
@@ -6681,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A98" s="12" t="s">
         <v>133</v>
       </c>
@@ -6704,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A99" s="12" t="s">
         <v>134</v>
       </c>
@@ -6727,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A100" s="12" t="s">
         <v>135</v>
       </c>
@@ -6750,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A101" s="12" t="s">
         <v>136</v>
       </c>
@@ -6773,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A102" s="12" t="s">
         <v>137</v>
       </c>
@@ -6796,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A103" s="12" t="s">
         <v>138</v>
       </c>
@@ -6819,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A104" s="12" t="s">
         <v>139</v>
       </c>
@@ -6842,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A105" s="12" t="s">
         <v>140</v>
       </c>
@@ -6865,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A106" s="12" t="s">
         <v>141</v>
       </c>
@@ -6888,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A107" s="12" t="s">
         <v>142</v>
       </c>
@@ -6911,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A108" s="12" t="s">
         <v>143</v>
       </c>
@@ -6934,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A109" s="12" t="s">
         <v>144</v>
       </c>
@@ -6957,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>145</v>
       </c>
@@ -6980,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A111" s="14" t="s">
         <v>191</v>
       </c>
@@ -7003,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A112" s="12" t="s">
         <v>44</v>
       </c>
@@ -7026,7 +7051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A113" s="12" t="s">
         <v>45</v>
       </c>
@@ -7049,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A114" s="12" t="s">
         <v>46</v>
       </c>
@@ -7072,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A115" s="12" t="s">
         <v>47</v>
       </c>
@@ -7095,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A116" s="12" t="s">
         <v>48</v>
       </c>
@@ -7118,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A117" s="12" t="s">
         <v>49</v>
       </c>
@@ -7141,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A118" s="12" t="s">
         <v>50</v>
       </c>
@@ -7164,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A119" s="12" t="s">
         <v>51</v>
       </c>
@@ -7187,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A120" s="12" t="s">
         <v>52</v>
       </c>
@@ -7210,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A121" s="14" t="s">
         <v>25</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A122" s="12" t="s">
         <v>146</v>
       </c>
@@ -7256,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A123" s="12" t="s">
         <v>147</v>
       </c>
@@ -7279,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A124" s="12" t="s">
         <v>148</v>
       </c>
@@ -7302,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A125" s="12" t="s">
         <v>149</v>
       </c>
@@ -7325,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A126" s="12" t="s">
         <v>150</v>
       </c>
@@ -7348,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A127" s="12" t="s">
         <v>151</v>
       </c>
@@ -7371,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A128" s="12" t="s">
         <v>152</v>
       </c>
@@ -7394,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A129" s="12" t="s">
         <v>153</v>
       </c>
@@ -7417,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A130" s="12" t="s">
         <v>154</v>
       </c>
@@ -7440,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A131" s="12" t="s">
         <v>155</v>
       </c>
@@ -7463,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A132" s="12" t="s">
         <v>156</v>
       </c>
@@ -7486,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A133" s="14" t="s">
         <v>157</v>
       </c>
@@ -7509,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A134" s="17" t="s">
         <v>158</v>
       </c>
@@ -7532,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A135" s="12" t="s">
         <v>159</v>
       </c>
@@ -7555,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A136" s="12" t="s">
         <v>160</v>
       </c>
@@ -7578,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A137" s="12" t="s">
         <v>161</v>
       </c>
@@ -7601,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A138" s="12" t="s">
         <v>162</v>
       </c>
@@ -7624,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A139" s="12" t="s">
         <v>163</v>
       </c>
@@ -7647,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A140" s="12" t="s">
         <v>164</v>
       </c>
@@ -7670,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A141" s="12" t="s">
         <v>165</v>
       </c>
@@ -7693,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A142" s="12" t="s">
         <v>166</v>
       </c>
@@ -7716,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A143" s="12" t="s">
         <v>167</v>
       </c>
@@ -7739,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A144" s="12" t="s">
         <v>168</v>
       </c>
@@ -7762,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A145" s="12" t="s">
         <v>169</v>
       </c>
@@ -7785,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A146" s="12" t="s">
         <v>170</v>
       </c>
@@ -7808,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A147" s="12" t="s">
         <v>171</v>
       </c>
@@ -7831,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A148" s="12" t="s">
         <v>172</v>
       </c>
@@ -7854,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A149" s="12" t="s">
         <v>173</v>
       </c>
@@ -7877,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A150" s="12" t="s">
         <v>174</v>
       </c>
@@ -7900,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A151" s="12" t="s">
         <v>175</v>
       </c>
@@ -7923,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A152" s="12" t="s">
         <v>176</v>
       </c>
@@ -7946,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A153" s="12" t="s">
         <v>177</v>
       </c>
@@ -7969,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A154" s="14" t="s">
         <v>178</v>
       </c>
@@ -7992,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A155" s="17" t="s">
         <v>41</v>
       </c>
@@ -8015,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A156" s="14" t="s">
         <v>42</v>
       </c>
@@ -8038,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A157" s="23" t="s">
         <v>189</v>
       </c>
@@ -8060,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A158" s="23" t="s">
         <v>190</v>
       </c>
@@ -8082,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A159" s="25" t="s">
         <v>43</v>
       </c>
@@ -8103,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A160" s="27" t="s">
         <v>18</v>
       </c>
@@ -8127,7 +8152,7 @@
       </c>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A161" s="27" t="s">
         <v>269</v>
       </c>
@@ -8151,7 +8176,7 @@
       </c>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A162" s="27" t="s">
         <v>17</v>
       </c>
@@ -8175,7 +8200,7 @@
       </c>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A163" s="27" t="s">
         <v>19</v>
       </c>
@@ -8198,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A164" s="27" t="s">
         <v>20</v>
       </c>
@@ -8222,7 +8247,7 @@
       </c>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A165" s="27" t="s">
         <v>21</v>
       </c>
@@ -8246,7 +8271,7 @@
       </c>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A166" s="27" t="s">
         <v>22</v>
       </c>
@@ -8270,7 +8295,7 @@
       </c>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A167" s="30" t="s">
         <v>237</v>
       </c>
@@ -8294,7 +8319,7 @@
       </c>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="20" customHeight="1">
       <c r="A168" s="33" t="s">
         <v>214</v>
       </c>
@@ -8318,7 +8343,7 @@
       </c>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="20" customHeight="1">
       <c r="A169" s="33" t="s">
         <v>215</v>
       </c>
@@ -8342,7 +8367,7 @@
       </c>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="20" customHeight="1">
       <c r="A170" s="33" t="s">
         <v>218</v>
       </c>
@@ -8365,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="20" customHeight="1">
       <c r="A171" s="33" t="s">
         <v>217</v>
       </c>
@@ -8388,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="20" customHeight="1">
       <c r="A172" s="33" t="s">
         <v>219</v>
       </c>
@@ -8411,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="20" customHeight="1">
       <c r="A173" s="33" t="s">
         <v>220</v>
       </c>
@@ -8434,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="20" customHeight="1">
       <c r="A174" s="33" t="s">
         <v>229</v>
       </c>
@@ -8457,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="20" customHeight="1">
       <c r="A175" s="33" t="s">
         <v>230</v>
       </c>
@@ -8480,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="20" customHeight="1">
       <c r="A176" s="33" t="s">
         <v>241</v>
       </c>
@@ -8503,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="20" customHeight="1">
       <c r="A177" s="33" t="s">
         <v>242</v>
       </c>
@@ -8526,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A178" s="14" t="s">
         <v>243</v>
       </c>
@@ -8549,1038 +8574,1038 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="20" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="13"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="20" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="13"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="20" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="13"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="20" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="13"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="20" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="13"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="20" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="13"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="20" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="13"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="20" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="13"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="20" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="13"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="20" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="13"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="20" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="13"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="20" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="13"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="20" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="13"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="20" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="13"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="20" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="13"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="20" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="13"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="35"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="35"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="35"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="35"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="35"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="35"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="35"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="35"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="35"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="35"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="35"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="35"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="35"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="35"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="35"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="35"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="35"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="35"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="35"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="35"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="35"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="35"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="35"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="35"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="35"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="35"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="35"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="35"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="35"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="35"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="35"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="35"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9594,8 +9619,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:D318"/>
@@ -9604,15 +9629,15 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="23.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="36" customWidth="1"/>
+    <col min="1" max="2" width="23.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="36" customWidth="1"/>
     <col min="4" max="4" width="12" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>294</v>
       </c>
@@ -9626,7 +9651,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
@@ -9640,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -9654,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -9668,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -9682,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
@@ -9696,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>215</v>
       </c>
@@ -9710,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>215</v>
       </c>
@@ -9724,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -9738,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -9752,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
@@ -9766,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>151</v>
       </c>
@@ -9780,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>151</v>
       </c>
@@ -9794,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -9808,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -9822,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>190</v>
       </c>
@@ -9836,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="44" t="s">
         <v>109</v>
       </c>
@@ -9850,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>150</v>
       </c>
@@ -9864,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>150</v>
       </c>
@@ -9878,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>108</v>
       </c>
@@ -9892,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>108</v>
       </c>
@@ -9906,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>214</v>
       </c>
@@ -9920,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>214</v>
       </c>
@@ -9934,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
@@ -9948,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>214</v>
       </c>
@@ -9962,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>142</v>
       </c>
@@ -9976,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="47" t="s">
         <v>231</v>
       </c>
@@ -9990,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -10004,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="51" t="s">
         <v>46</v>
       </c>
@@ -10018,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
@@ -10032,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>235</v>
       </c>
@@ -10046,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
@@ -10060,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>149</v>
       </c>
@@ -10074,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
@@ -10088,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>106</v>
       </c>
@@ -10102,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>106</v>
       </c>
@@ -10116,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>189</v>
       </c>
@@ -10130,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="39" t="s">
         <v>39</v>
       </c>
@@ -10144,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -10158,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
@@ -10172,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -10186,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>138</v>
       </c>
@@ -10200,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>217</v>
       </c>
@@ -10214,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>217</v>
       </c>
@@ -10228,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
@@ -10242,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="20" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>122</v>
       </c>
@@ -10256,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>122</v>
       </c>
@@ -10270,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>157</v>
       </c>
@@ -10284,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>157</v>
       </c>
@@ -10298,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -10312,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -10326,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="56" t="s">
         <v>190</v>
       </c>
@@ -10340,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>121</v>
       </c>
@@ -10354,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>156</v>
       </c>
@@ -10368,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>156</v>
       </c>
@@ -10382,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -10396,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
@@ -10410,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>218</v>
       </c>
@@ -10424,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>218</v>
       </c>
@@ -10438,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>119</v>
       </c>
@@ -10452,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>218</v>
       </c>
@@ -10466,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
@@ -10480,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="57" t="s">
         <v>48</v>
       </c>
@@ -10494,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="58" t="s">
         <v>144</v>
       </c>
@@ -10508,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="20" customHeight="1">
       <c r="A65" s="47" t="s">
         <v>238</v>
       </c>
@@ -10522,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="20" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>119</v>
       </c>
@@ -10536,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="20" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>155</v>
       </c>
@@ -10550,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="20" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
@@ -10564,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="20" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -10578,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="56" t="s">
         <v>189</v>
       </c>
@@ -10592,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="60" t="s">
         <v>189</v>
       </c>
@@ -10606,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="20" customHeight="1">
       <c r="A72" s="47" t="s">
         <v>98</v>
       </c>
@@ -10620,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>98</v>
       </c>
@@ -10634,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="20" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>92</v>
       </c>
@@ -10648,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>92</v>
       </c>
@@ -10662,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="21" t="s">
         <v>93</v>
       </c>
@@ -10676,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="21" t="s">
         <v>93</v>
       </c>
@@ -10690,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="20" customHeight="1">
       <c r="A78" s="21" t="s">
         <v>94</v>
       </c>
@@ -10704,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="21" t="s">
         <v>94</v>
       </c>
@@ -10718,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="21" t="s">
         <v>176</v>
       </c>
@@ -10732,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="21" t="s">
         <v>176</v>
       </c>
@@ -10746,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="21" t="s">
         <v>177</v>
       </c>
@@ -10760,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="20" customHeight="1">
       <c r="A83" s="21" t="s">
         <v>177</v>
       </c>
@@ -10774,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>178</v>
       </c>
@@ -10788,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="20" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>178</v>
       </c>
@@ -10802,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>95</v>
       </c>
@@ -10816,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="20" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>95</v>
       </c>
@@ -10830,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>192</v>
       </c>
@@ -10844,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="20" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>192</v>
       </c>
@@ -10858,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="20" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
@@ -10872,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="20" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>193</v>
       </c>
@@ -10886,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="20" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -10900,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="20" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>99</v>
       </c>
@@ -10914,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>140</v>
       </c>
@@ -10928,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="20" customHeight="1">
       <c r="A95" s="51" t="s">
         <v>44</v>
       </c>
@@ -10942,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>140</v>
       </c>
@@ -10956,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="20" customHeight="1">
       <c r="A97" s="53" t="s">
         <v>233</v>
       </c>
@@ -10970,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="20" customHeight="1">
       <c r="A98" s="62" t="s">
         <v>189</v>
       </c>
@@ -10984,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="20" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>100</v>
       </c>
@@ -10998,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="20" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
@@ -11012,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="20" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>146</v>
       </c>
@@ -11026,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>146</v>
       </c>
@@ -11040,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -11054,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="20" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>101</v>
       </c>
@@ -11068,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="20" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>219</v>
       </c>
@@ -11082,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>219</v>
       </c>
@@ -11096,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>141</v>
       </c>
@@ -11110,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="20" customHeight="1">
       <c r="A108" s="51" t="s">
         <v>45</v>
       </c>
@@ -11124,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="20" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>141</v>
       </c>
@@ -11138,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="20" customHeight="1">
       <c r="A110" s="53" t="s">
         <v>234</v>
       </c>
@@ -11152,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="20" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>219</v>
       </c>
@@ -11166,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="20" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>102</v>
       </c>
@@ -11180,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="20" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>102</v>
       </c>
@@ -11194,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="20" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>147</v>
       </c>
@@ -11208,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="20" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>147</v>
       </c>
@@ -11222,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="20" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>103</v>
       </c>
@@ -11236,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="20" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>103</v>
       </c>
@@ -11250,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="20" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>220</v>
       </c>
@@ -11264,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="20" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>220</v>
       </c>
@@ -11278,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="20" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>104</v>
       </c>
@@ -11292,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="20" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>104</v>
       </c>
@@ -11306,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="20" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>148</v>
       </c>
@@ -11320,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="20" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>148</v>
       </c>
@@ -11334,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="20" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>105</v>
       </c>
@@ -11348,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="20" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>105</v>
       </c>
@@ -11362,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="20" customHeight="1">
       <c r="A126" s="56" t="s">
         <v>190</v>
       </c>
@@ -11376,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="20" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>220</v>
       </c>
@@ -11390,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="20" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>96</v>
       </c>
@@ -11404,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="20" customHeight="1">
       <c r="A129" s="51" t="s">
         <v>52</v>
       </c>
@@ -11418,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="20" customHeight="1">
       <c r="A130" s="47" t="s">
         <v>96</v>
       </c>
@@ -11432,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="20" customHeight="1">
       <c r="A131" s="146" t="s">
         <v>42</v>
       </c>
@@ -11446,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="20" customHeight="1">
       <c r="A132" s="48" t="s">
         <v>189</v>
       </c>
@@ -11460,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="20" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -11474,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>173</v>
       </c>
@@ -11488,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>174</v>
       </c>
@@ -11502,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>175</v>
       </c>
@@ -11516,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="20" customHeight="1">
       <c r="A137" s="21" t="s">
         <v>87</v>
       </c>
@@ -11530,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="20" customHeight="1">
       <c r="A138" s="21" t="s">
         <v>88</v>
       </c>
@@ -11544,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="20" customHeight="1">
       <c r="A139" s="21" t="s">
         <v>89</v>
       </c>
@@ -11558,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="20" customHeight="1">
       <c r="A140" s="21" t="s">
         <v>90</v>
       </c>
@@ -11572,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="20" customHeight="1">
       <c r="A141" s="21" t="s">
         <v>91</v>
       </c>
@@ -11586,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="20" customHeight="1">
       <c r="A142" s="143" t="s">
         <v>51</v>
       </c>
@@ -11600,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="20" customHeight="1">
       <c r="A143" s="146" t="s">
         <v>41</v>
       </c>
@@ -11614,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="20" customHeight="1">
       <c r="A144" s="48" t="s">
         <v>189</v>
       </c>
@@ -11628,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="20" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>112</v>
       </c>
@@ -11642,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="20" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>112</v>
       </c>
@@ -11656,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="20" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>152</v>
       </c>
@@ -11670,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="20" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>152</v>
       </c>
@@ -11684,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>113</v>
       </c>
@@ -11698,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>113</v>
       </c>
@@ -11712,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="20" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>229</v>
       </c>
@@ -11726,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="20" customHeight="1">
       <c r="A152" s="5" t="s">
         <v>229</v>
       </c>
@@ -11740,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>114</v>
       </c>
@@ -11754,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>114</v>
       </c>
@@ -11768,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -11782,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
@@ -11796,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>115</v>
       </c>
@@ -11810,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>115</v>
       </c>
@@ -11824,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="20" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>230</v>
       </c>
@@ -11838,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="20" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>230</v>
       </c>
@@ -11852,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>116</v>
       </c>
@@ -11866,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>116</v>
       </c>
@@ -11880,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>154</v>
       </c>
@@ -11894,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>154</v>
       </c>
@@ -11908,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>117</v>
       </c>
@@ -11922,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>117</v>
       </c>
@@ -11936,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="20" customHeight="1">
       <c r="A167" s="65" t="s">
         <v>190</v>
       </c>
@@ -11950,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="20" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>229</v>
       </c>
@@ -11964,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="20" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>143</v>
       </c>
@@ -11978,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="20" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>143</v>
       </c>
@@ -11992,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="20" customHeight="1">
       <c r="A171" s="63" t="s">
         <v>47</v>
       </c>
@@ -12006,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="20" customHeight="1">
       <c r="A172" s="21" t="s">
         <v>236</v>
       </c>
@@ -12020,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="20" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>230</v>
       </c>
@@ -12034,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="20" customHeight="1">
       <c r="A174" s="53" t="s">
         <v>137</v>
       </c>
@@ -12048,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="20" customHeight="1">
       <c r="A175" s="66" t="s">
         <v>189</v>
       </c>
@@ -12062,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="20" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>124</v>
       </c>
@@ -12076,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="20" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>124</v>
       </c>
@@ -12090,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="20" customHeight="1">
       <c r="A178" s="21" t="s">
         <v>60</v>
       </c>
@@ -12104,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="20" customHeight="1">
       <c r="A179" s="21" t="s">
         <v>61</v>
       </c>
@@ -12118,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="20" customHeight="1">
       <c r="A180" s="21" t="s">
         <v>61</v>
       </c>
@@ -12132,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="20" customHeight="1">
       <c r="A181" s="21" t="s">
         <v>62</v>
       </c>
@@ -12146,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="20" customHeight="1">
       <c r="A182" s="21" t="s">
         <v>62</v>
       </c>
@@ -12160,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="20" customHeight="1">
       <c r="A183" s="21" t="s">
         <v>63</v>
       </c>
@@ -12174,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="20" customHeight="1">
       <c r="A184" s="21" t="s">
         <v>63</v>
       </c>
@@ -12188,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="20" customHeight="1">
       <c r="A185" s="21" t="s">
         <v>64</v>
       </c>
@@ -12202,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="20" customHeight="1">
       <c r="A186" s="21" t="s">
         <v>64</v>
       </c>
@@ -12216,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="20" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>158</v>
       </c>
@@ -12230,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="20" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>158</v>
       </c>
@@ -12244,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="20" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>159</v>
       </c>
@@ -12258,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="20" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>159</v>
       </c>
@@ -12272,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="20" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>160</v>
       </c>
@@ -12286,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="20" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>160</v>
       </c>
@@ -12300,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="20" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>125</v>
       </c>
@@ -12314,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="20" customHeight="1">
       <c r="A194" s="67" t="s">
         <v>259</v>
       </c>
@@ -12328,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="20" customHeight="1">
       <c r="A195" s="51" t="s">
         <v>49</v>
       </c>
@@ -12342,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>239</v>
       </c>
@@ -12356,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="20" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>145</v>
       </c>
@@ -12370,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="20" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>241</v>
       </c>
@@ -12384,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="20" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>241</v>
       </c>
@@ -12398,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="20" customHeight="1">
       <c r="A200" s="44" t="s">
         <v>125</v>
       </c>
@@ -12412,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="20" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>126</v>
       </c>
@@ -12426,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="20" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>126</v>
       </c>
@@ -12440,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="20" customHeight="1">
       <c r="A203" s="21" t="s">
         <v>65</v>
       </c>
@@ -12454,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="20" customHeight="1">
       <c r="A204" s="21" t="s">
         <v>65</v>
       </c>
@@ -12468,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="20" customHeight="1">
       <c r="A205" s="21" t="s">
         <v>66</v>
       </c>
@@ -12482,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="20" customHeight="1">
       <c r="A206" s="21" t="s">
         <v>66</v>
       </c>
@@ -12496,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="20" customHeight="1">
       <c r="A207" s="21" t="s">
         <v>67</v>
       </c>
@@ -12510,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="20" customHeight="1">
       <c r="A208" s="21" t="s">
         <v>67</v>
       </c>
@@ -12524,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>161</v>
       </c>
@@ -12538,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>161</v>
       </c>
@@ -12552,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -12566,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -12580,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="20" customHeight="1">
       <c r="A213" s="5" t="s">
         <v>163</v>
       </c>
@@ -12594,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="20" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>163</v>
       </c>
@@ -12608,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="20" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>68</v>
       </c>
@@ -12622,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="20" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>68</v>
       </c>
@@ -12636,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="20" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>69</v>
       </c>
@@ -12650,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="20" customHeight="1">
       <c r="A218" s="69" t="s">
         <v>69</v>
       </c>
@@ -12664,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="20" customHeight="1">
       <c r="A219" s="70" t="s">
         <v>70</v>
       </c>
@@ -12678,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="20" customHeight="1">
       <c r="A220" s="70" t="s">
         <v>70</v>
       </c>
@@ -12692,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="20" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>127</v>
       </c>
@@ -12706,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="20" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>127</v>
       </c>
@@ -12720,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="20" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>128</v>
       </c>
@@ -12734,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="20" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>128</v>
       </c>
@@ -12748,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="20" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>129</v>
       </c>
@@ -12762,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="20" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>129</v>
       </c>
@@ -12776,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="20" customHeight="1">
       <c r="A227" s="56" t="s">
         <v>190</v>
       </c>
@@ -12790,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="20" customHeight="1">
       <c r="A228" s="48" t="s">
         <v>189</v>
       </c>
@@ -12804,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="20" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>130</v>
       </c>
@@ -12818,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="20" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>130</v>
       </c>
@@ -12832,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="20" customHeight="1">
       <c r="A231" s="21" t="s">
         <v>71</v>
       </c>
@@ -12846,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="20" customHeight="1">
       <c r="A232" s="21" t="s">
         <v>71</v>
       </c>
@@ -12860,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="20" customHeight="1">
       <c r="A233" s="21" t="s">
         <v>72</v>
       </c>
@@ -12874,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="20" customHeight="1">
       <c r="A234" s="21" t="s">
         <v>72</v>
       </c>
@@ -12888,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="20" customHeight="1">
       <c r="A235" s="21" t="s">
         <v>73</v>
       </c>
@@ -12902,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="20" customHeight="1">
       <c r="A236" s="21" t="s">
         <v>73</v>
       </c>
@@ -12916,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="20" customHeight="1">
       <c r="A237" s="21" t="s">
         <v>74</v>
       </c>
@@ -12930,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="20" customHeight="1">
       <c r="A238" s="21" t="s">
         <v>74</v>
       </c>
@@ -12944,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="20" customHeight="1">
       <c r="A239" s="21" t="s">
         <v>75</v>
       </c>
@@ -12958,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="20" customHeight="1">
       <c r="A240" s="21" t="s">
         <v>75</v>
       </c>
@@ -12972,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="20" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>164</v>
       </c>
@@ -12986,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="20" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>164</v>
       </c>
@@ -13000,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="20" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>165</v>
       </c>
@@ -13014,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="20" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>165</v>
       </c>
@@ -13028,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="20" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>166</v>
       </c>
@@ -13042,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="20" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>166</v>
       </c>
@@ -13056,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="20" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>131</v>
       </c>
@@ -13070,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="20" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>131</v>
       </c>
@@ -13084,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="20" customHeight="1">
       <c r="A249" s="67" t="s">
         <v>258</v>
       </c>
@@ -13098,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="20" customHeight="1">
       <c r="A250" s="63" t="s">
         <v>50</v>
       </c>
@@ -13112,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="20" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>240</v>
       </c>
@@ -13126,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="20" customHeight="1">
       <c r="A252" s="5" t="s">
         <v>191</v>
       </c>
@@ -13140,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="20" customHeight="1">
       <c r="A253" s="5" t="s">
         <v>242</v>
       </c>
@@ -13154,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="20" customHeight="1">
       <c r="A254" s="53" t="s">
         <v>242</v>
       </c>
@@ -13168,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="20" customHeight="1">
       <c r="A255" s="5" t="s">
         <v>132</v>
       </c>
@@ -13182,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="20" customHeight="1">
       <c r="A256" s="5" t="s">
         <v>132</v>
       </c>
@@ -13196,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="20" customHeight="1">
       <c r="A257" s="21" t="s">
         <v>76</v>
       </c>
@@ -13210,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="20" customHeight="1">
       <c r="A258" s="21" t="s">
         <v>76</v>
       </c>
@@ -13224,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="20" customHeight="1">
       <c r="A259" s="21" t="s">
         <v>77</v>
       </c>
@@ -13238,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="20" customHeight="1">
       <c r="A260" s="21" t="s">
         <v>77</v>
       </c>
@@ -13252,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="20" customHeight="1">
       <c r="A261" s="21" t="s">
         <v>78</v>
       </c>
@@ -13266,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="20" customHeight="1">
       <c r="A262" s="21" t="s">
         <v>78</v>
       </c>
@@ -13280,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="20" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>167</v>
       </c>
@@ -13294,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="20" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>167</v>
       </c>
@@ -13308,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="20" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>168</v>
       </c>
@@ -13322,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="20" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>168</v>
       </c>
@@ -13336,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="20" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>169</v>
       </c>
@@ -13350,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="20" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>169</v>
       </c>
@@ -13364,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="20" customHeight="1">
       <c r="A269" s="21" t="s">
         <v>79</v>
       </c>
@@ -13378,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="20" customHeight="1">
       <c r="A270" s="21" t="s">
         <v>79</v>
       </c>
@@ -13392,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="20" customHeight="1">
       <c r="A271" s="21" t="s">
         <v>80</v>
       </c>
@@ -13406,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="20" customHeight="1">
       <c r="A272" s="21" t="s">
         <v>80</v>
       </c>
@@ -13420,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="20" customHeight="1">
       <c r="A273" s="21" t="s">
         <v>81</v>
       </c>
@@ -13434,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="20" customHeight="1">
       <c r="A274" s="21" t="s">
         <v>81</v>
       </c>
@@ -13448,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="20" customHeight="1">
       <c r="A275" s="5" t="s">
         <v>133</v>
       </c>
@@ -13462,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="20" customHeight="1">
       <c r="A276" s="5" t="s">
         <v>133</v>
       </c>
@@ -13476,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="20" customHeight="1">
       <c r="A277" s="5" t="s">
         <v>243</v>
       </c>
@@ -13490,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="20" customHeight="1">
       <c r="A278" s="5" t="s">
         <v>243</v>
       </c>
@@ -13504,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="20" customHeight="1">
       <c r="A279" s="5" t="s">
         <v>134</v>
       </c>
@@ -13518,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="20" customHeight="1">
       <c r="A280" s="5" t="s">
         <v>134</v>
       </c>
@@ -13532,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="20" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>170</v>
       </c>
@@ -13546,7 +13571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="20" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>170</v>
       </c>
@@ -13560,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="20" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>171</v>
       </c>
@@ -13574,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="20" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>171</v>
       </c>
@@ -13588,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="20" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>172</v>
       </c>
@@ -13602,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="20" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>172</v>
       </c>
@@ -13616,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="20" customHeight="1">
       <c r="A287" s="21" t="s">
         <v>82</v>
       </c>
@@ -13630,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="20" customHeight="1">
       <c r="A288" s="21" t="s">
         <v>82</v>
       </c>
@@ -13644,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="20" customHeight="1">
       <c r="A289" s="21" t="s">
         <v>83</v>
       </c>
@@ -13658,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="20" customHeight="1">
       <c r="A290" s="21" t="s">
         <v>83</v>
       </c>
@@ -13672,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="20" customHeight="1">
       <c r="A291" s="21" t="s">
         <v>84</v>
       </c>
@@ -13686,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="20" customHeight="1">
       <c r="A292" s="21" t="s">
         <v>84</v>
       </c>
@@ -13700,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="20" customHeight="1">
       <c r="A293" s="21" t="s">
         <v>85</v>
       </c>
@@ -13714,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="20" customHeight="1">
       <c r="A294" s="21" t="s">
         <v>85</v>
       </c>
@@ -13728,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="20" customHeight="1">
       <c r="A295" s="21" t="s">
         <v>86</v>
       </c>
@@ -13742,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="20" customHeight="1">
       <c r="A296" s="21" t="s">
         <v>86</v>
       </c>
@@ -13756,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="20" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>135</v>
       </c>
@@ -13770,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="20" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>135</v>
       </c>
@@ -13784,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="20" customHeight="1">
       <c r="A299" s="56" t="s">
         <v>190</v>
       </c>
@@ -13798,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="20" customHeight="1">
       <c r="A300" s="39" t="s">
         <v>244</v>
       </c>
@@ -13812,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="20" customHeight="1">
       <c r="A301" s="51" t="s">
         <v>25</v>
       </c>
@@ -13826,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="20" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>59</v>
       </c>
@@ -13840,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="20" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>139</v>
       </c>
@@ -13854,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="20" customHeight="1">
       <c r="A304" s="53" t="s">
         <v>139</v>
       </c>
@@ -13868,7 +13893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="20" customHeight="1">
       <c r="A305" s="5" t="s">
         <v>43</v>
       </c>
@@ -13882,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="20" customHeight="1">
       <c r="A306" s="5" t="s">
         <v>43</v>
       </c>
@@ -13896,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="20" customHeight="1">
       <c r="A307" s="5" t="s">
         <v>43</v>
       </c>
@@ -13910,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="20" customHeight="1">
       <c r="A308" s="5" t="s">
         <v>43</v>
       </c>
@@ -13924,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="20" customHeight="1">
       <c r="A309" s="5" t="s">
         <v>43</v>
       </c>
@@ -13938,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="20" customHeight="1">
       <c r="A310" s="5" t="s">
         <v>43</v>
       </c>
@@ -13952,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="20" customHeight="1">
       <c r="A311" s="5" t="s">
         <v>43</v>
       </c>
@@ -13966,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="20" customHeight="1">
       <c r="A312" s="5" t="s">
         <v>43</v>
       </c>
@@ -13980,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="20" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>43</v>
       </c>
@@ -13994,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="20" customHeight="1">
       <c r="A314" s="5" t="s">
         <v>43</v>
       </c>
@@ -14008,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="20" customHeight="1">
       <c r="A315" s="5" t="s">
         <v>43</v>
       </c>
@@ -14022,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="20" customHeight="1">
       <c r="A316" s="5" t="s">
         <v>43</v>
       </c>
@@ -14036,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="20" customHeight="1">
       <c r="A317" s="53" t="s">
         <v>43</v>
       </c>
@@ -14050,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4">
       <c r="C318" s="40"/>
     </row>
   </sheetData>
@@ -14061,8 +14086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
@@ -14071,16 +14096,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="4" max="4" width="18.1640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>298</v>
       </c>
@@ -14094,7 +14119,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -14109,7 +14134,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -14124,7 +14149,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>244</v>
       </c>
@@ -14139,7 +14164,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
@@ -14155,7 +14180,7 @@
       </c>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>259</v>
       </c>
@@ -14170,28 +14195,28 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="73"/>
     </row>
   </sheetData>
@@ -14202,8 +14227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
@@ -14212,17 +14237,17 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="5"/>
+    <col min="5" max="5" width="11.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>302</v>
       </c>
@@ -14239,7 +14264,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -14258,7 +14283,7 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
@@ -14276,7 +14301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>237</v>
       </c>
@@ -14294,7 +14319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -14312,7 +14337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -14330,7 +14355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -14348,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -14366,7 +14391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -14384,7 +14409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -14396,42 +14421,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:R3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="77"/>
+    <col min="1" max="1" width="10.83203125" style="77"/>
     <col min="2" max="2" width="42" style="75" customWidth="1"/>
     <col min="3" max="4" width="16" style="75" customWidth="1"/>
     <col min="5" max="5" width="17" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="77" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="77" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="77" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="77" customWidth="1"/>
-    <col min="13" max="14" width="10" style="77" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="77" customWidth="1"/>
-    <col min="17" max="17" width="21.875" style="77" customWidth="1"/>
-    <col min="18" max="18" width="71.625" style="78" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="79"/>
+    <col min="6" max="6" width="7.33203125" style="77" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="77" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="77" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="77" customWidth="1"/>
+    <col min="14" max="15" width="14.83203125" style="77" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" style="77" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="77" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" style="77" customWidth="1"/>
+    <col min="20" max="20" width="71.6640625" style="78" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="26" customHeight="1">
       <c r="A1" s="165" t="s">
         <v>318</v>
       </c>
@@ -14454,40 +14481,46 @@
         <v>317</v>
       </c>
       <c r="H1" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="110" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="J1" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="K1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="L1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="M1" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="N1" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="O1" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="115" t="s">
+      <c r="P1" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="115" t="s">
+      <c r="R1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="S1" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="113" t="s">
+      <c r="T1" s="113" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="75" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="75" customFormat="1" ht="47" customHeight="1">
       <c r="A2" s="77">
         <v>1</v>
       </c>
@@ -14510,41 +14543,47 @@
         <v>0.6</v>
       </c>
       <c r="H2" s="82">
+        <v>0</v>
+      </c>
+      <c r="I2" s="82">
         <v>0.26</v>
       </c>
-      <c r="I2" s="82">
+      <c r="J2" s="82">
         <f>1.79/9.81</f>
         <v>0.18246687054026503</v>
       </c>
-      <c r="J2" s="151">
-        <v>1</v>
-      </c>
-      <c r="K2" s="152">
-        <v>0</v>
-      </c>
-      <c r="L2" s="82" t="s">
+      <c r="K2" s="151">
+        <v>1</v>
+      </c>
+      <c r="L2" s="152">
+        <v>0</v>
+      </c>
+      <c r="M2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="N2" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="O2" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O2" s="161">
+      <c r="P2" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q2" s="161">
         <v>21</v>
       </c>
-      <c r="P2" s="161">
+      <c r="R2" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q2" s="90" t="s">
+      <c r="S2" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="149" t="s">
+      <c r="T2" s="149" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="75" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="77">
         <v>2</v>
       </c>
@@ -14567,41 +14606,47 @@
         <v>0.6</v>
       </c>
       <c r="H3" s="82">
+        <v>0</v>
+      </c>
+      <c r="I3" s="82">
         <v>0.25</v>
       </c>
-      <c r="I3" s="82">
+      <c r="J3" s="82">
         <f>1.79/9.81</f>
         <v>0.18246687054026503</v>
       </c>
-      <c r="J3" s="151">
-        <v>1</v>
-      </c>
-      <c r="K3" s="152">
-        <v>0</v>
-      </c>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="151">
+        <v>1</v>
+      </c>
+      <c r="L3" s="152">
+        <v>0</v>
+      </c>
+      <c r="M3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="N3" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="O3" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O3" s="161">
+      <c r="P3" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="161">
         <v>21</v>
       </c>
-      <c r="P3" s="161">
+      <c r="R3" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="S3" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="149" t="s">
+      <c r="T3" s="149" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="75" customFormat="1" ht="41.25" customHeight="1">
       <c r="A4" s="77">
         <v>3</v>
       </c>
@@ -14624,40 +14669,46 @@
         <v>0.51</v>
       </c>
       <c r="H4" s="82">
+        <v>0</v>
+      </c>
+      <c r="I4" s="82">
         <v>0.2</v>
       </c>
-      <c r="I4" s="90">
+      <c r="J4" s="90">
         <v>-0.69</v>
       </c>
-      <c r="J4" s="151">
-        <v>1</v>
-      </c>
-      <c r="K4" s="152">
-        <v>0</v>
-      </c>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="151">
+        <v>1</v>
+      </c>
+      <c r="L4" s="152">
+        <v>0</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="N4" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="O4" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O4" s="161">
+      <c r="P4" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="161">
         <v>21</v>
       </c>
-      <c r="P4" s="161">
+      <c r="R4" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="S4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="150" t="s">
+      <c r="T4" s="150" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="75" customFormat="1" ht="66" customHeight="1">
       <c r="A5" s="77">
         <v>4</v>
       </c>
@@ -14680,40 +14731,46 @@
         <v>0.6</v>
       </c>
       <c r="H5" s="82">
+        <v>0</v>
+      </c>
+      <c r="I5" s="82">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I5" s="90">
+      <c r="J5" s="90">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J5" s="151">
+      <c r="K5" s="151">
         <v>0.3</v>
       </c>
-      <c r="K5" s="152">
-        <v>0</v>
-      </c>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="152">
+        <v>0</v>
+      </c>
+      <c r="M5" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="N5" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N5" s="90" t="s">
+      <c r="O5" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O5" s="161">
+      <c r="P5" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q5" s="161">
         <v>7</v>
       </c>
-      <c r="P5" s="161">
+      <c r="R5" s="161">
         <v>1.22</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="S5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="148" t="s">
+      <c r="T5" s="148" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="75" customFormat="1" ht="78" customHeight="1">
       <c r="A6" s="77">
         <v>5</v>
       </c>
@@ -14736,40 +14793,46 @@
         <v>0.96</v>
       </c>
       <c r="H6" s="82">
+        <v>0</v>
+      </c>
+      <c r="I6" s="82">
         <v>0.43</v>
       </c>
-      <c r="I6" s="90">
+      <c r="J6" s="90">
         <v>0.18</v>
       </c>
-      <c r="J6" s="151">
+      <c r="K6" s="151">
         <v>0.3</v>
       </c>
-      <c r="K6" s="152">
-        <v>0</v>
-      </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="152">
+        <v>0</v>
+      </c>
+      <c r="M6" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="82" t="s">
+      <c r="N6" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N6" s="90" t="s">
+      <c r="O6" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O6" s="161">
+      <c r="P6" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q6" s="161">
         <v>7</v>
       </c>
-      <c r="P6" s="161">
+      <c r="R6" s="161">
         <v>1.22</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="S6" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="148" t="s">
+      <c r="T6" s="148" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="75" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="75" customFormat="1" ht="30.75" customHeight="1">
       <c r="A7" s="77">
         <v>6</v>
       </c>
@@ -14792,40 +14855,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H7" s="82">
+        <v>0</v>
+      </c>
+      <c r="I7" s="82">
         <v>0.3</v>
       </c>
-      <c r="I7" s="90">
+      <c r="J7" s="90">
         <v>0.08</v>
       </c>
-      <c r="J7" s="151">
+      <c r="K7" s="151">
         <v>0.3</v>
       </c>
-      <c r="K7" s="152">
-        <v>0</v>
-      </c>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="152">
+        <v>0</v>
+      </c>
+      <c r="M7" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="82" t="s">
+      <c r="N7" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="O7" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O7" s="161">
+      <c r="P7" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q7" s="161">
         <v>5</v>
       </c>
-      <c r="P7" s="161">
+      <c r="R7" s="161">
         <v>0.61</v>
       </c>
-      <c r="Q7" s="90" t="s">
+      <c r="S7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="148" t="s">
+      <c r="T7" s="148" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="75" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="77">
         <v>7</v>
       </c>
@@ -14848,40 +14917,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H8" s="82">
+        <v>0</v>
+      </c>
+      <c r="I8" s="82">
         <v>0.2</v>
       </c>
-      <c r="I8" s="90">
+      <c r="J8" s="90">
         <v>-0.1</v>
       </c>
-      <c r="J8" s="151">
-        <v>1</v>
-      </c>
-      <c r="K8" s="152">
-        <v>0</v>
-      </c>
-      <c r="L8" s="82" t="s">
+      <c r="K8" s="151">
+        <v>1</v>
+      </c>
+      <c r="L8" s="152">
+        <v>0</v>
+      </c>
+      <c r="M8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="N8" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N8" s="90" t="s">
+      <c r="O8" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O8" s="161">
+      <c r="P8" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q8" s="161">
         <v>21</v>
       </c>
-      <c r="P8" s="161">
+      <c r="R8" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="S8" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="148" t="s">
+      <c r="T8" s="148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="75" customFormat="1" ht="66" customHeight="1">
       <c r="A9" s="77">
         <v>8</v>
       </c>
@@ -14904,40 +14979,46 @@
         <v>0.85</v>
       </c>
       <c r="H9" s="82">
+        <v>0</v>
+      </c>
+      <c r="I9" s="82">
         <v>0.3</v>
       </c>
-      <c r="I9" s="90">
-        <v>0</v>
-      </c>
-      <c r="J9" s="151">
-        <v>1</v>
-      </c>
-      <c r="K9" s="152">
-        <v>0</v>
-      </c>
-      <c r="L9" s="82" t="s">
+      <c r="J9" s="90">
+        <v>0</v>
+      </c>
+      <c r="K9" s="151">
+        <v>1</v>
+      </c>
+      <c r="L9" s="152">
+        <v>0</v>
+      </c>
+      <c r="M9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="N9" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="O9" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O9" s="161">
+      <c r="P9" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q9" s="161">
         <v>21</v>
       </c>
-      <c r="P9" s="161">
+      <c r="R9" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q9" s="90" t="s">
+      <c r="S9" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="148" t="s">
+      <c r="T9" s="148" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="75" customFormat="1" ht="48" customHeight="1">
       <c r="A10" s="77">
         <v>9</v>
       </c>
@@ -14960,40 +15041,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H10" s="82">
+        <v>0</v>
+      </c>
+      <c r="I10" s="82">
         <v>0.2</v>
       </c>
-      <c r="I10" s="90">
+      <c r="J10" s="90">
         <v>0.03</v>
       </c>
-      <c r="J10" s="151">
-        <v>1</v>
-      </c>
-      <c r="K10" s="152">
-        <v>0</v>
-      </c>
-      <c r="L10" s="82" t="s">
+      <c r="K10" s="151">
+        <v>1</v>
+      </c>
+      <c r="L10" s="152">
+        <v>0</v>
+      </c>
+      <c r="M10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="N10" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N10" s="90" t="s">
+      <c r="O10" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O10" s="161">
+      <c r="P10" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q10" s="161">
         <v>14</v>
       </c>
-      <c r="P10" s="161">
+      <c r="R10" s="161">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q10" s="90" t="s">
+      <c r="S10" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="148" t="s">
+      <c r="T10" s="148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="75" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="75" customFormat="1" ht="49" customHeight="1">
       <c r="A11" s="77">
         <v>10</v>
       </c>
@@ -15016,40 +15103,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H11" s="82">
+        <v>0</v>
+      </c>
+      <c r="I11" s="82">
         <v>0.2</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="J11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="151">
+      <c r="K11" s="151">
         <v>0.3</v>
       </c>
-      <c r="K11" s="152">
-        <v>0</v>
-      </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="152">
+        <v>0</v>
+      </c>
+      <c r="M11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="N11" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N11" s="90" t="s">
+      <c r="O11" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O11" s="161">
+      <c r="P11" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q11" s="161">
         <v>21</v>
       </c>
-      <c r="P11" s="161">
+      <c r="R11" s="161">
         <v>4.26</v>
       </c>
-      <c r="Q11" s="90" t="s">
+      <c r="S11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="148" t="s">
+      <c r="T11" s="148" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="75" customFormat="1" ht="65.25" customHeight="1">
       <c r="A12" s="77">
         <v>11</v>
       </c>
@@ -15072,40 +15165,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H12" s="82">
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
         <v>0.2</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="J12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="151">
+      <c r="K12" s="151">
         <v>0.3</v>
       </c>
-      <c r="K12" s="152">
-        <v>0</v>
-      </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="152">
+        <v>0</v>
+      </c>
+      <c r="M12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="N12" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="O12" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O12" s="161">
+      <c r="P12" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q12" s="161">
         <v>21</v>
       </c>
-      <c r="P12" s="161">
+      <c r="R12" s="161">
         <v>3.04</v>
       </c>
-      <c r="Q12" s="90" t="s">
+      <c r="S12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="148" t="s">
+      <c r="T12" s="148" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="75" customFormat="1" ht="80.25" customHeight="1">
       <c r="A13" s="77">
         <v>12</v>
       </c>
@@ -15128,40 +15227,46 @@
         <v>0.67</v>
       </c>
       <c r="H13" s="82">
+        <v>0</v>
+      </c>
+      <c r="I13" s="82">
         <v>0.3</v>
       </c>
-      <c r="I13" s="90">
+      <c r="J13" s="90">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J13" s="151">
+      <c r="K13" s="151">
         <v>0.3</v>
       </c>
-      <c r="K13" s="152">
-        <v>0</v>
-      </c>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="152">
+        <v>0</v>
+      </c>
+      <c r="M13" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="82" t="s">
+      <c r="N13" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N13" s="90" t="s">
+      <c r="O13" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O13" s="161">
+      <c r="P13" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="161">
         <v>21</v>
       </c>
-      <c r="P13" s="161">
+      <c r="R13" s="161">
         <v>1.82</v>
       </c>
-      <c r="Q13" s="90" t="s">
+      <c r="S13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="148" t="s">
+      <c r="T13" s="148" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="75" customFormat="1" ht="82.5" customHeight="1">
       <c r="A14" s="77">
         <v>13</v>
       </c>
@@ -15184,40 +15289,46 @@
         <v>0.67</v>
       </c>
       <c r="H14" s="82">
+        <v>0</v>
+      </c>
+      <c r="I14" s="82">
         <v>0.3</v>
       </c>
-      <c r="I14" s="90">
+      <c r="J14" s="90">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J14" s="151">
+      <c r="K14" s="151">
         <v>0.3</v>
       </c>
-      <c r="K14" s="152">
-        <v>0</v>
-      </c>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="152">
+        <v>0</v>
+      </c>
+      <c r="M14" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="N14" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N14" s="90" t="s">
+      <c r="O14" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O14" s="161">
+      <c r="P14" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q14" s="161">
         <v>10</v>
       </c>
-      <c r="P14" s="161">
+      <c r="R14" s="161">
         <v>1.22</v>
       </c>
-      <c r="Q14" s="90" t="s">
+      <c r="S14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="148" t="s">
+      <c r="T14" s="148" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="75" customFormat="1" ht="82.5" customHeight="1">
       <c r="A15" s="77">
         <v>14</v>
       </c>
@@ -15240,40 +15351,46 @@
         <v>0.65</v>
       </c>
       <c r="H15" s="82">
+        <v>0</v>
+      </c>
+      <c r="I15" s="82">
         <v>0.4</v>
       </c>
-      <c r="I15" s="90">
+      <c r="J15" s="90">
         <v>-1.71</v>
       </c>
-      <c r="J15" s="151">
-        <v>1</v>
-      </c>
-      <c r="K15" s="152">
-        <v>0</v>
-      </c>
-      <c r="L15" s="82" t="s">
+      <c r="K15" s="151">
+        <v>1</v>
+      </c>
+      <c r="L15" s="152">
+        <v>0</v>
+      </c>
+      <c r="M15" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="82" t="s">
+      <c r="N15" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="O15" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O15" s="161">
+      <c r="P15" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q15" s="161">
         <v>75</v>
       </c>
-      <c r="P15" s="161">
+      <c r="R15" s="161">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q15" s="90" t="s">
+      <c r="S15" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="148" t="s">
+      <c r="T15" s="148" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="75" customFormat="1" ht="82.5" customHeight="1">
       <c r="A16" s="77">
         <v>15</v>
       </c>
@@ -15296,40 +15413,46 @@
         <v>0.86</v>
       </c>
       <c r="H16" s="164">
+        <v>0</v>
+      </c>
+      <c r="I16" s="164">
         <v>0.38</v>
       </c>
-      <c r="I16" s="90">
+      <c r="J16" s="90">
         <v>-1.71</v>
       </c>
-      <c r="J16" s="151">
-        <v>1</v>
-      </c>
-      <c r="K16" s="152">
-        <v>0</v>
-      </c>
-      <c r="L16" s="82" t="s">
+      <c r="K16" s="151">
+        <v>1</v>
+      </c>
+      <c r="L16" s="152">
+        <v>0</v>
+      </c>
+      <c r="M16" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="N16" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N16" s="90" t="s">
+      <c r="O16" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O16" s="161">
+      <c r="P16" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="161">
         <v>75</v>
       </c>
-      <c r="P16" s="161">
+      <c r="R16" s="161">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q16" s="90" t="s">
+      <c r="S16" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="148" t="s">
+      <c r="T16" s="148" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="75" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="77">
         <v>16</v>
       </c>
@@ -15352,40 +15475,46 @@
         <v>0.86</v>
       </c>
       <c r="H17" s="82">
+        <v>0</v>
+      </c>
+      <c r="I17" s="82">
         <v>0.38</v>
       </c>
-      <c r="I17" s="90">
+      <c r="J17" s="90">
         <v>-1.71</v>
       </c>
-      <c r="J17" s="151">
-        <v>1</v>
-      </c>
-      <c r="K17" s="152">
-        <v>0</v>
-      </c>
-      <c r="L17" s="82" t="s">
+      <c r="K17" s="151">
+        <v>1</v>
+      </c>
+      <c r="L17" s="152">
+        <v>0</v>
+      </c>
+      <c r="M17" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="82" t="s">
+      <c r="N17" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N17" s="90" t="s">
+      <c r="O17" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O17" s="161">
+      <c r="P17" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q17" s="161">
         <v>75</v>
       </c>
-      <c r="P17" s="161">
+      <c r="R17" s="161">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q17" s="90" t="s">
+      <c r="S17" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="148" t="s">
+      <c r="T17" s="148" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="77">
         <v>17</v>
       </c>
@@ -15408,40 +15537,46 @@
         <v>1.08</v>
       </c>
       <c r="H18" s="82">
+        <v>0</v>
+      </c>
+      <c r="I18" s="82">
         <v>0.54</v>
       </c>
-      <c r="I18" s="90">
+      <c r="J18" s="90">
         <v>0.08</v>
       </c>
-      <c r="J18" s="151">
+      <c r="K18" s="151">
         <v>0.95</v>
       </c>
-      <c r="K18" s="152">
-        <v>0</v>
-      </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="152">
+        <v>0</v>
+      </c>
+      <c r="M18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="82" t="s">
+      <c r="N18" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N18" s="90" t="s">
+      <c r="O18" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O18" s="161">
-        <v>1</v>
-      </c>
-      <c r="P18" s="161">
+      <c r="P18" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q18" s="161">
+        <v>1</v>
+      </c>
+      <c r="R18" s="161">
         <v>0.61</v>
       </c>
-      <c r="Q18" s="90" t="s">
+      <c r="S18" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="147" t="s">
+      <c r="T18" s="147" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="77">
         <v>18</v>
       </c>
@@ -15464,40 +15599,46 @@
         <v>4</v>
       </c>
       <c r="H19" s="82">
+        <v>0</v>
+      </c>
+      <c r="I19" s="82">
         <v>0.01</v>
       </c>
-      <c r="I19" s="90">
+      <c r="J19" s="90">
         <v>0.01</v>
       </c>
-      <c r="J19" s="151">
+      <c r="K19" s="151">
         <v>0.01</v>
       </c>
-      <c r="K19" s="152">
-        <v>1</v>
-      </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="152">
+        <v>1</v>
+      </c>
+      <c r="M19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="82" t="s">
+      <c r="N19" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N19" s="90" t="s">
+      <c r="O19" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O19" s="161">
-        <v>1</v>
-      </c>
-      <c r="P19" s="161">
+      <c r="P19" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q19" s="161">
+        <v>1</v>
+      </c>
+      <c r="R19" s="161">
         <v>0.01</v>
       </c>
-      <c r="Q19" s="90" t="s">
+      <c r="S19" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="147" t="s">
+      <c r="T19" s="147" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="77">
         <v>19</v>
       </c>
@@ -15520,40 +15661,46 @@
         <v>99</v>
       </c>
       <c r="H20" s="156">
+        <v>0</v>
+      </c>
+      <c r="I20" s="156">
         <v>0.01</v>
       </c>
-      <c r="I20" s="156">
+      <c r="J20" s="156">
         <v>-0.37</v>
       </c>
-      <c r="J20" s="157">
+      <c r="K20" s="157">
         <v>0.95</v>
       </c>
-      <c r="K20" s="157">
-        <v>0</v>
-      </c>
-      <c r="L20" s="156" t="s">
+      <c r="L20" s="157">
+        <v>0</v>
+      </c>
+      <c r="M20" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="82" t="s">
+      <c r="N20" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N20" s="90" t="s">
+      <c r="O20" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O20" s="162">
+      <c r="P20" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q20" s="162">
         <v>7</v>
       </c>
-      <c r="P20" s="162">
+      <c r="R20" s="162">
         <v>1.22</v>
       </c>
-      <c r="Q20" s="156" t="s">
+      <c r="S20" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="158" t="s">
+      <c r="T20" s="158" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="77">
         <v>20</v>
       </c>
@@ -15576,40 +15723,46 @@
         <v>0.69</v>
       </c>
       <c r="H21" s="82">
+        <v>0</v>
+      </c>
+      <c r="I21" s="82">
         <v>0.2</v>
       </c>
-      <c r="I21" s="90">
+      <c r="J21" s="90">
         <v>-0.37</v>
       </c>
-      <c r="J21" s="151">
+      <c r="K21" s="151">
         <v>0.95</v>
       </c>
-      <c r="K21" s="152">
-        <v>0</v>
-      </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="152">
+        <v>0</v>
+      </c>
+      <c r="M21" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="N21" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N21" s="90" t="s">
+      <c r="O21" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O21" s="161">
+      <c r="P21" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q21" s="161">
         <v>7</v>
       </c>
-      <c r="P21" s="161">
+      <c r="R21" s="161">
         <v>1.22</v>
       </c>
-      <c r="Q21" s="90" t="s">
+      <c r="S21" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="147" t="s">
+      <c r="T21" s="147" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="77">
         <v>21</v>
       </c>
@@ -15632,40 +15785,46 @@
         <v>99</v>
       </c>
       <c r="H22" s="82">
+        <v>0</v>
+      </c>
+      <c r="I22" s="82">
         <v>0.01</v>
       </c>
-      <c r="I22" s="90">
+      <c r="J22" s="90">
         <v>0.01</v>
       </c>
-      <c r="J22" s="151">
+      <c r="K22" s="151">
         <v>0.01</v>
       </c>
-      <c r="K22" s="152">
-        <v>1</v>
-      </c>
-      <c r="L22" s="82" t="s">
+      <c r="L22" s="152">
+        <v>1</v>
+      </c>
+      <c r="M22" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="82" t="s">
+      <c r="N22" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N22" s="90" t="s">
+      <c r="O22" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O22" s="161">
-        <v>1</v>
-      </c>
-      <c r="P22" s="161">
+      <c r="P22" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="161">
+        <v>1</v>
+      </c>
+      <c r="R22" s="161">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="90" t="s">
+      <c r="S22" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="147" t="s">
+      <c r="T22" s="147" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="77">
         <v>22</v>
       </c>
@@ -15688,61 +15847,77 @@
         <v>99</v>
       </c>
       <c r="H23" s="82">
+        <v>0</v>
+      </c>
+      <c r="I23" s="82">
         <v>0.01</v>
       </c>
-      <c r="I23" s="90">
+      <c r="J23" s="90">
         <v>0.01</v>
       </c>
-      <c r="J23" s="151">
+      <c r="K23" s="151">
         <v>0.01</v>
       </c>
-      <c r="K23" s="152">
-        <v>1</v>
-      </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="152">
+        <v>1</v>
+      </c>
+      <c r="M23" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="82" t="s">
+      <c r="N23" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="N23" s="90" t="s">
+      <c r="O23" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="O23" s="161">
-        <v>1</v>
-      </c>
-      <c r="P23" s="161">
+      <c r="P23" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q23" s="161">
+        <v>1</v>
+      </c>
+      <c r="R23" s="161">
         <v>0.01</v>
       </c>
-      <c r="Q23" s="90" t="s">
+      <c r="S23" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="147" t="s">
+      <c r="T23" s="147" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S9:XFD9 S20:XFD20 H21:I22 R21:XFD22 C23 G2:I19 B2:F2 G20:G22 R10:XFD19 R2:XFD8 B3:C22 E3:F22 E23:I23 D3:D23 J2:P23">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+  <conditionalFormatting sqref="U9:XFD9 U20:XFD20 I21:J22 T21:XFD22 C23 G2:J19 B2:F2 G20:H22 T10:XFD19 T2:XFD8 B3:C22 E3:F22 E23:J23 D3:D23 K2:N23 Q2:R23">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:I20 R20">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+  <conditionalFormatting sqref="I20:J20 T20">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="S2:S23">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O23">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P23">
     <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -15753,8 +15928,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -15764,16 +15939,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="42" style="75" customWidth="1"/>
     <col min="2" max="2" width="16" style="75" customWidth="1"/>
     <col min="3" max="3" width="51.5" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.625" style="78" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="79"/>
+    <col min="4" max="4" width="71.6640625" style="78" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
@@ -15787,7 +15962,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="75" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="75" customFormat="1" ht="47" customHeight="1">
       <c r="A2" s="80" t="s">
         <v>181</v>
       </c>
@@ -15801,7 +15976,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="80" t="s">
         <v>182</v>
       </c>
@@ -15815,7 +15990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="75" customFormat="1" ht="41.25" customHeight="1">
       <c r="A4" s="80" t="s">
         <v>26</v>
       </c>
@@ -15829,7 +16004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1">
       <c r="A5" s="80" t="s">
         <v>28</v>
       </c>
@@ -15843,7 +16018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="75" customFormat="1" ht="78" customHeight="1">
       <c r="A6" s="80" t="s">
         <v>29</v>
       </c>
@@ -15857,7 +16032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="75" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="75" customFormat="1" ht="30.75" customHeight="1">
       <c r="A7" s="80" t="s">
         <v>23</v>
       </c>
@@ -15871,7 +16046,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="75" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>35</v>
       </c>
@@ -15885,7 +16060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1">
       <c r="A9" s="80" t="s">
         <v>183</v>
       </c>
@@ -15899,7 +16074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="75" customFormat="1" ht="48" customHeight="1">
       <c r="A10" s="80" t="s">
         <v>184</v>
       </c>
@@ -15913,7 +16088,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="75" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="75" customFormat="1" ht="49" customHeight="1">
       <c r="A11" s="80" t="s">
         <v>185</v>
       </c>
@@ -15927,7 +16102,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="75" customFormat="1" ht="65.25" customHeight="1">
       <c r="A12" s="80" t="s">
         <v>186</v>
       </c>
@@ -15941,7 +16116,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="75" customFormat="1" ht="80.25" customHeight="1">
       <c r="A13" s="80" t="s">
         <v>187</v>
       </c>
@@ -15955,7 +16130,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="75" customFormat="1" ht="82.5" customHeight="1">
       <c r="A14" s="80" t="s">
         <v>188</v>
       </c>
@@ -15969,7 +16144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="128" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="128" customFormat="1" ht="159" customHeight="1">
       <c r="A15" s="85" t="s">
         <v>27</v>
       </c>
@@ -15983,7 +16158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="86" t="s">
         <v>24</v>
       </c>
@@ -15997,7 +16172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="80" t="s">
         <v>291</v>
       </c>
@@ -16011,7 +16186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="87" t="s">
         <v>278</v>
       </c>
@@ -16025,7 +16200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="88" t="s">
         <v>9</v>
       </c>
@@ -16039,7 +16214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="89" t="s">
         <v>216</v>
       </c>
@@ -16110,8 +16285,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
@@ -16120,20 +16295,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="102" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="102" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="102" customWidth="1"/>
-    <col min="8" max="8" width="31.125" style="102" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="34"/>
+    <col min="1" max="1" width="47.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="102" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="102" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="102" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="91" t="s">
         <v>11</v>
       </c>
@@ -16146,7 +16321,7 @@
       <c r="G1" s="92"/>
       <c r="H1" s="92"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="91" t="s">
         <v>13</v>
       </c>
@@ -16158,7 +16333,7 @@
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="93"/>
@@ -16168,7 +16343,7 @@
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
-    <row r="4" spans="1:8" s="95" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="95" customFormat="1" ht="54" customHeight="1">
       <c r="A4" s="117" t="s">
         <v>0</v>
       </c>
@@ -16194,7 +16369,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="23" customHeight="1">
       <c r="A5" s="96" t="s">
         <v>181</v>
       </c>
@@ -16219,7 +16394,7 @@
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
     </row>
-    <row r="6" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="23" customHeight="1">
       <c r="A6" s="96" t="s">
         <v>26</v>
       </c>
@@ -16244,7 +16419,7 @@
       <c r="G6" s="103"/>
       <c r="H6" s="103"/>
     </row>
-    <row r="7" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="23" customHeight="1">
       <c r="A7" s="96" t="s">
         <v>28</v>
       </c>
@@ -16269,7 +16444,7 @@
       <c r="G7" s="103"/>
       <c r="H7" s="103"/>
     </row>
-    <row r="8" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="23" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>23</v>
       </c>
@@ -16294,7 +16469,7 @@
       <c r="G8" s="103"/>
       <c r="H8" s="103"/>
     </row>
-    <row r="9" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="96" t="s">
         <v>35</v>
       </c>
@@ -16319,7 +16494,7 @@
       <c r="G9" s="103"/>
       <c r="H9" s="103"/>
     </row>
-    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="23" customHeight="1">
       <c r="A10" s="96" t="s">
         <v>184</v>
       </c>
@@ -16344,7 +16519,7 @@
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
     </row>
-    <row r="11" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="23" customHeight="1">
       <c r="A11" s="96" t="s">
         <v>185</v>
       </c>
@@ -16369,7 +16544,7 @@
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="23" customHeight="1">
       <c r="A12" s="96" t="s">
         <v>186</v>
       </c>
@@ -16394,7 +16569,7 @@
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
     </row>
-    <row r="13" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="23" customHeight="1">
       <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
@@ -16419,7 +16594,7 @@
       <c r="G13" s="104"/>
       <c r="H13" s="104"/>
     </row>
-    <row r="14" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="23" customHeight="1">
       <c r="A14" s="101" t="s">
         <v>179</v>
       </c>
@@ -16444,7 +16619,7 @@
       <c r="G14" s="105"/>
       <c r="H14" s="105"/>
     </row>
-    <row r="15" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="23" customHeight="1">
       <c r="A15" s="100" t="s">
         <v>254</v>
       </c>
@@ -16456,7 +16631,7 @@
       <c r="G15" s="105"/>
       <c r="H15" s="105"/>
     </row>
-    <row r="16" spans="1:8" s="123" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="123" customFormat="1" ht="23" customHeight="1">
       <c r="A16" s="120" t="s">
         <v>255</v>
       </c>
@@ -16544,8 +16719,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF008000"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
@@ -16554,20 +16729,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="102" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="102" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="102" customWidth="1"/>
-    <col min="8" max="8" width="31.125" style="102" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="34"/>
+    <col min="1" max="1" width="47.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="102" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="102" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="102" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="91" t="s">
         <v>11</v>
       </c>
@@ -16580,7 +16755,7 @@
       <c r="G1" s="92"/>
       <c r="H1" s="92"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="91" t="s">
         <v>13</v>
       </c>
@@ -16592,7 +16767,7 @@
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="93"/>
@@ -16602,7 +16777,7 @@
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
-    <row r="4" spans="1:8" s="95" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="95" customFormat="1" ht="54" customHeight="1">
       <c r="A4" s="117" t="s">
         <v>0</v>
       </c>
@@ -16628,7 +16803,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="23" customHeight="1">
       <c r="A5" s="96" t="s">
         <v>181</v>
       </c>
@@ -16653,7 +16828,7 @@
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
     </row>
-    <row r="6" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="23" customHeight="1">
       <c r="A6" s="96" t="s">
         <v>182</v>
       </c>
@@ -16678,7 +16853,7 @@
       <c r="G6" s="103"/>
       <c r="H6" s="103"/>
     </row>
-    <row r="7" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="23" customHeight="1">
       <c r="A7" s="96" t="s">
         <v>26</v>
       </c>
@@ -16703,7 +16878,7 @@
       <c r="G7" s="103"/>
       <c r="H7" s="103"/>
     </row>
-    <row r="8" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="23" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>28</v>
       </c>
@@ -16728,7 +16903,7 @@
       <c r="G8" s="103"/>
       <c r="H8" s="103"/>
     </row>
-    <row r="9" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="96" t="s">
         <v>29</v>
       </c>
@@ -16753,7 +16928,7 @@
       <c r="G9" s="103"/>
       <c r="H9" s="103"/>
     </row>
-    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="23" customHeight="1">
       <c r="A10" s="96" t="s">
         <v>23</v>
       </c>
@@ -16778,7 +16953,7 @@
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
     </row>
-    <row r="11" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="23" customHeight="1">
       <c r="A11" s="96" t="s">
         <v>35</v>
       </c>
@@ -16803,7 +16978,7 @@
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="23" customHeight="1">
       <c r="A12" s="96" t="s">
         <v>183</v>
       </c>
@@ -16828,7 +17003,7 @@
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
     </row>
-    <row r="13" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="23" customHeight="1">
       <c r="A13" s="96" t="s">
         <v>184</v>
       </c>
@@ -16853,7 +17028,7 @@
       <c r="G13" s="103"/>
       <c r="H13" s="103"/>
     </row>
-    <row r="14" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="23" customHeight="1">
       <c r="A14" s="96" t="s">
         <v>185</v>
       </c>
@@ -16878,7 +17053,7 @@
       <c r="G14" s="103"/>
       <c r="H14" s="103"/>
     </row>
-    <row r="15" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="23" customHeight="1">
       <c r="A15" s="96" t="s">
         <v>186</v>
       </c>
@@ -16903,7 +17078,7 @@
       <c r="G15" s="103"/>
       <c r="H15" s="103"/>
     </row>
-    <row r="16" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="23" customHeight="1">
       <c r="A16" s="96" t="s">
         <v>187</v>
       </c>
@@ -16928,7 +17103,7 @@
       <c r="G16" s="103"/>
       <c r="H16" s="103"/>
     </row>
-    <row r="17" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="23" customHeight="1">
       <c r="A17" s="96" t="s">
         <v>188</v>
       </c>
@@ -16953,7 +17128,7 @@
       <c r="G17" s="103"/>
       <c r="H17" s="103"/>
     </row>
-    <row r="18" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="23" customHeight="1">
       <c r="A18" s="100" t="s">
         <v>27</v>
       </c>
@@ -16978,7 +17153,7 @@
       <c r="G18" s="104"/>
       <c r="H18" s="104"/>
     </row>
-    <row r="19" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="23" customHeight="1">
       <c r="A19" s="101" t="s">
         <v>179</v>
       </c>
@@ -17003,7 +17178,7 @@
       <c r="G19" s="105"/>
       <c r="H19" s="105"/>
     </row>
-    <row r="20" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="23" customHeight="1">
       <c r="A20" s="100" t="s">
         <v>254</v>
       </c>
@@ -17015,7 +17190,7 @@
       <c r="G20" s="105"/>
       <c r="H20" s="105"/>
     </row>
-    <row r="21" spans="1:8" s="123" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="123" customFormat="1" ht="23" customHeight="1">
       <c r="A21" s="120" t="s">
         <v>255</v>
       </c>
